--- a/data/trans_dic/P16_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud autopercibida regular o mala</t>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,97</t>
+          <t>0,0; 20,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 17,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>4,78; 27,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 14,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,2</t>
+          <t>2,22; 19,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>1,66; 18,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,04</t>
+          <t>3,87; 19,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 11,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 9,74</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 10,63</t>
+          <t>0,0; 15,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,12</t>
+          <t>0,0; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 14,21</t>
+          <t>2,05; 17,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 19,85</t>
+          <t>5,02; 27,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,26</t>
+          <t>0,0; 47,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 14,86</t>
+          <t>2,82; 18,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 18,05</t>
+          <t>1,46; 15,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 14,43</t>
+          <t>6,49; 23,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 9,63</t>
+          <t>1,91; 20,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,22</t>
+          <t>5,48; 27,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 13,16</t>
+          <t>2,51; 13,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 14,05</t>
+          <t>1,07; 10,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 19,0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 19,4</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 38,07</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 17,34</t>
+          <t>1,7; 15,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,97</t>
+          <t>1,7; 15,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,26</t>
+          <t>1,79; 15,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 17,43</t>
+          <t>4,21; 23,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 16,83</t>
+          <t>7,56; 29,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 13,0</t>
+          <t>6,62; 19,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 19,71</t>
+          <t>3,92; 15,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 23,64</t>
+          <t>6,64; 18,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 14,63</t>
+          <t>9,96; 25,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,36</t>
+          <t>9,15; 24,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,57</t>
+          <t>5,98; 14,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 17,96</t>
+          <t>4,17; 12,79</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 14,69</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,89; 20,86</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 23,16</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 13,96</t>
+          <t>1,23; 10,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 12,1</t>
+          <t>2,38; 12,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 18,57</t>
+          <t>2,49; 14,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 18,25</t>
+          <t>5,09; 18,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 24,5</t>
+          <t>11,19; 27,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,62; 22,64</t>
+          <t>9,48; 23,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 32,83</t>
+          <t>11,02; 25,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 37,54</t>
+          <t>17,88; 34,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,55</t>
+          <t>22,48; 40,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 15,98</t>
+          <t>25,24; 44,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 24,14</t>
+          <t>6,87; 15,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 26,03</t>
+          <t>7,9; 17,2</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 22,58</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 27,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 33,62</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>27,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>24,97%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>40,27%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 20,62</t>
+          <t>7,02; 24,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,95; 35,66</t>
+          <t>20,5; 49,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,68; 35,06</t>
+          <t>13,64; 42,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 36,27</t>
+          <t>18,78; 45,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 34,88</t>
+          <t>25,27; 51,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,31; 37,36</t>
+          <t>10,55; 32,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,76; 43,75</t>
+          <t>11,73; 35,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,84; 44,42</t>
+          <t>15,55; 39,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,96; 24,89</t>
+          <t>17,41; 41,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,69; 32,58</t>
+          <t>29,06; 56,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,31; 34,9</t>
+          <t>10,12; 23,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,44; 36,64</t>
+          <t>19,99; 39,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>16,9; 37,52</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20,91; 40,78</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>31,44; 50,53</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>29,45%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>27,79%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>44,13%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,64; 26,55</t>
+          <t>2,26; 20,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 29,19</t>
+          <t>7,83; 33,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,71; 31,08</t>
+          <t>10,05; 33,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,86; 35,25</t>
+          <t>12,02; 37,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,43; 50,68</t>
+          <t>20,39; 53,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,86; 48,28</t>
+          <t>21,81; 52,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,44; 46,32</t>
+          <t>29,35; 60,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,18; 74,15</t>
+          <t>22,98; 53,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,54; 38,26</t>
+          <t>17,86; 48,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,89; 36,73</t>
+          <t>32,15; 68,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,18; 38,04</t>
+          <t>14,61; 33,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,98; 60,11</t>
+          <t>23,32; 43,62</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>20,0; 41,07</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 40,09</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>32,1; 58,68</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,05</t>
+          <t>4,6; 10,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,16</t>
+          <t>7,08; 14,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,69</t>
+          <t>7,23; 15,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,17; 14,8</t>
+          <t>10,46; 18,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,81</t>
+          <t>14,57; 28,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 17,84</t>
+          <t>12,75; 19,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,58; 23,57</t>
+          <t>11,97; 19,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,42; 31,43</t>
+          <t>15,24; 23,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,22</t>
+          <t>15,03; 22,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,16</t>
+          <t>22,9; 34,7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,55; 17,65</t>
+          <t>9,65; 14,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,83; 22,62</t>
+          <t>10,32; 15,96</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12,35; 18,16</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 19,62</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 28,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4107</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15912</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10339</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9851</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20019</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10339</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9851</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17532</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5620; 32216</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2663; 23591</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2414; 26499</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7877; 38923</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2606; 25305</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2461; 28380</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11201</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20817</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34282</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10634</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9623</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17117</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21897</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16431</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12676</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28318</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>30202</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>56180</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21191</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14448</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2947; 25288</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7751; 42579</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 108838</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3765; 24628</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2413; 25904</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8217; 29423</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2417; 25763</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8890; 44177</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6793; 35706</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3571; 33937</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15813; 51305</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15014; 54429</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19380; 148506</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9740</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10853</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8020</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16019</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30088</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25608</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22094</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24024</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33324</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37587</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35348</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>32947</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>32044</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>49343</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>67675</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2381; 21291</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2753; 24733</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2404; 21135</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5795; 31732</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13625; 53300</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14254; 41843</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10353; 40594</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13907; 39489</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19783; 50264</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21945; 58078</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21225; 52548</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17786; 54501</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19720; 50477</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>33263; 70143</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>45808; 97274</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9312</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10241</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17021</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36442</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30540</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38778</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48356</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>52706</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>72832</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>36845</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>48090</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>58597</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>69727</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>109274</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2018; 16782</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4436; 23133</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4012; 22780</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7943; 29606</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22278; 55567</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18141; 45609</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24068; 55906</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33253; 64747</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38311; 69378</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>53692; 93971</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24389; 55055</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>31994; 69677</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>42159; 78383</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>52934; 90255</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>83229; 138491</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19806</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48209</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>32975</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37259</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>57661</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19891</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25665</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23431</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25733</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>58954</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39697</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73873</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>56406</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>62991</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>116615</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9754; 33946</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31735; 76513</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18010; 56161</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23136; 55687</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38543; 78599</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10920; 33314</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13635; 40849</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14587; 37307</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16132; 38514</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39823; 77909</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24526; 57078</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>54186; 106921</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>38168; 84747</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>45140; 88030</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>91041; 146333</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8213</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19962</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17798</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>21213</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49406</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59477</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>38879</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33135</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>104444</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>46213</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>79439</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>56677</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>54348</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>153850</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2037; 18808</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8555; 36555</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8780; 29029</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10835; 34086</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>28100; 73421</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>23345; 55833</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>39366; 81065</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24163; 56000</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18823; 51553</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>67771; 143616</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28828; 66358</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>56784; 106183</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>38498; 79045</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>37802; 78399</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>111905; 204580</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>53968</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>91389</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>80235</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>112329</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>207880</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>140584</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>155637</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>162146</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>154282</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>305566</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>194553</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>247026</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>242381</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>266611</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>513446</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>34730; 75500</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>62916; 131168</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>55280; 120178</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>82511; 148163</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>152050; 292681</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>110687; 173508</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>123540; 200130</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>128185; 198479</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>122648; 187189</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>253818; 384579</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>156586; 235143</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>198250; 306549</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>198268; 291432</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>222528; 314842</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>436825; 617076</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>